--- a/ConversorPrats/sqls/AjustesProdutosPrats/Planilha de introdução de produto.xlsx
+++ b/ConversorPrats/sqls/AjustesProdutosPrats/Planilha de introdução de produto.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Conversao\ConversorPrats\sqls\AjustesProdutosPrats\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE375C3-20D1-4908-A36C-AC6353DBE28B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="20115" windowHeight="7815" tabRatio="701"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="20115" windowHeight="7815" tabRatio="701" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Top System" sheetId="15" r:id="rId1"/>
@@ -103,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _B_F_-;\-* #,##0\ _B_F_-;_-* &quot;-&quot;\ _B_F_-;_-@_-"/>
@@ -141,24 +147,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="34"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -204,19 +198,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -256,24 +242,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -282,10 +268,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -294,13 +280,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -309,17 +295,20 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="5"/>
-    <cellStyle name="Normal_Plan1" xfId="1"/>
-    <cellStyle name="Vírgula 2" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_Plan1" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Vírgula 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -328,7 +317,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -366,9 +355,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,9 +390,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,9 +442,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -611,19 +634,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="1" max="1" width="9.140625" style="21"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="31.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" style="1" customWidth="1"/>
@@ -634,318 +657,312 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="6" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="14"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="15">
+        <v>7898953148015</v>
+      </c>
+      <c r="F2" s="16">
+        <v>17898953148012</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="10">
+        <v>1279</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="5">
+        <v>7898953148169</v>
+      </c>
+      <c r="F3" s="5">
+        <v>17898953148166</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>1384</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="16">
+        <v>7898953148176</v>
+      </c>
+      <c r="F4" s="16">
+        <v>17898953148173</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1438</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5">
+        <v>7898953148213</v>
+      </c>
+      <c r="F5" s="5">
+        <v>17898953148210</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="17">
-        <v>7898953148015</v>
-      </c>
-      <c r="F3" s="18">
-        <v>17898953148012</v>
-      </c>
-      <c r="G3" s="19" t="s">
+      <c r="H5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>1557</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="16">
+        <v>7898953148220</v>
+      </c>
+      <c r="F6" s="16">
+        <v>17898953148227</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>1558</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5">
+        <v>7898953148237</v>
+      </c>
+      <c r="F7" s="5">
+        <v>17898953148234</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>1980</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>1981</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>4128</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="19">
+        <v>7898953148428</v>
+      </c>
+      <c r="F10" s="19">
+        <v>17898953148425</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>4129</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="9">
+        <v>7898953148435</v>
+      </c>
+      <c r="F11" s="9">
+        <v>17898953148432</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <v>9421</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="15">
+        <v>7898953148541</v>
+      </c>
+      <c r="F12" s="15">
+        <v>17898953148548</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>1279</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="7">
-        <v>7898953148169</v>
-      </c>
-      <c r="F4" s="7">
-        <v>17898953148166</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
-        <v>1384</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="18">
-        <v>7898953148176</v>
-      </c>
-      <c r="F5" s="18">
-        <v>17898953148173</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>1438</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="7">
-        <v>7898953148213</v>
-      </c>
-      <c r="F6" s="7">
-        <v>17898953148210</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>1557</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="18">
-        <v>7898953148220</v>
-      </c>
-      <c r="F7" s="18">
-        <v>17898953148227</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>1558</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="7">
-        <v>7898953148237</v>
-      </c>
-      <c r="F8" s="7">
-        <v>17898953148234</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>1980</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>1981</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
-        <v>4128</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="21">
-        <v>7898953148428</v>
-      </c>
-      <c r="F11" s="21">
-        <v>17898953148425</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
-        <v>4129</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="11">
-        <v>7898953148435</v>
-      </c>
-      <c r="F12" s="11">
-        <v>17898953148432</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
-        <v>9421</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="17">
-        <v>7898953148541</v>
-      </c>
-      <c r="F13" s="17">
-        <v>17898953148548</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="5"/>
+      <c r="H12" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
@@ -955,7 +972,6 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
